--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2913BB92-1921-4E49-880C-D5A82107F29C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06743AD6-42F1-B14B-BC08-2205EB9EF5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="17680" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>6wji</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>KOKKOS</t>
+  </si>
+  <si>
+    <t>pdb2pqr30 --ff=AMBER --drop-water 7sts.pdb 7sts.pqr</t>
   </si>
 </sst>
 </file>
@@ -175,19 +178,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,19 +507,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
-  <dimension ref="A4:T81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="27.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="1"/>
     <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" customWidth="1"/>
     <col min="10" max="12" width="10.83203125" style="1"/>
     <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
@@ -524,42 +527,47 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
@@ -568,7 +576,7 @@
       <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -577,7 +585,7 @@
       <c r="G9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -588,7 +596,7 @@
       <c r="D10" s="1">
         <v>48.376350000000002</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>-19131737943.5672</v>
       </c>
       <c r="F10" s="1">
@@ -605,7 +613,7 @@
       <c r="D11" s="1">
         <v>5.5767610000000003</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>-1108599573.18925</v>
       </c>
       <c r="F11" s="1">
@@ -622,7 +630,7 @@
       <c r="D12" s="1">
         <v>3.0717219999999998</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>-1091548193.0015099</v>
       </c>
       <c r="F12" s="1">
@@ -639,7 +647,7 @@
       <c r="D13" s="1">
         <v>18.164584999999999</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>-9429129769.5504799</v>
       </c>
       <c r="F13" s="1">
@@ -656,7 +664,7 @@
       <c r="D14" s="1">
         <v>17.803811</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>-12445247273.3456</v>
       </c>
       <c r="F14" s="1">
@@ -673,7 +681,7 @@
       <c r="D15" s="1">
         <v>344.30739699999998</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>-40018842137.321198</v>
       </c>
       <c r="F15" s="1">
@@ -684,23 +692,23 @@
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
@@ -709,7 +717,7 @@
       <c r="D30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -718,7 +726,7 @@
       <c r="G30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -729,7 +737,7 @@
       <c r="D31" s="1">
         <v>550.46839899999998</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>-19131737943.5672</v>
       </c>
       <c r="F31" s="1">
@@ -738,25 +746,25 @@
       <c r="G31" s="2">
         <v>9.169506E-5</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="4">
         <v>26718.143559</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3" t="s">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
@@ -765,7 +773,7 @@
       <c r="D32" s="1">
         <v>21.301463999999999</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>-1108599573.18925</v>
       </c>
       <c r="F32" s="1">
@@ -774,25 +782,25 @@
       <c r="G32" s="2">
         <v>9.8180840000000003E-5</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="4">
         <v>7144.5482140000004</v>
       </c>
-      <c r="I32" s="3" t="s">
+      <c r="I32" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3" t="s">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="5"/>
+      <c r="S32" s="5"/>
+      <c r="T32" s="5"/>
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
@@ -801,7 +809,7 @@
       <c r="D33" s="1">
         <v>22.284164000000001</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>-1091548193.0015099</v>
       </c>
       <c r="F33" s="1">
@@ -810,25 +818,25 @@
       <c r="G33" s="2">
         <v>6.3577990000000006E-5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>7903.3842000000004</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3" t="s">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5"/>
+      <c r="R33" s="5"/>
+      <c r="S33" s="5"/>
+      <c r="T33" s="5"/>
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
@@ -837,7 +845,7 @@
       <c r="D34" s="1">
         <v>183.005979</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>-9429129769.5504799</v>
       </c>
       <c r="F34" s="1">
@@ -846,25 +854,25 @@
       <c r="G34" s="2">
         <v>8.695911E-5</v>
       </c>
-      <c r="H34" s="5">
+      <c r="H34" s="4">
         <v>21395.599388999999</v>
       </c>
-      <c r="I34" s="3" t="s">
+      <c r="I34" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3" t="s">
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
@@ -873,7 +881,7 @@
       <c r="D35" s="1">
         <v>115.520646</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>-12445247273.3456</v>
       </c>
       <c r="F35" s="1">
@@ -882,25 +890,25 @@
       <c r="G35" s="2">
         <v>7.5154839999999997E-5</v>
       </c>
-      <c r="H35" s="5">
+      <c r="H35" s="4">
         <v>22109.497549</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3" t="s">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
@@ -908,14 +916,14 @@
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
@@ -924,7 +932,7 @@
       <c r="D48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="F48" s="1" t="s">
@@ -933,7 +941,7 @@
       <c r="G48" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -941,7 +949,7 @@
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="4">
         <v>26718.143559</v>
       </c>
     </row>
@@ -992,7 +1000,7 @@
       <c r="D63" s="1">
         <v>7.5186270000000004</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="3">
         <v>-19131737943.5672</v>
       </c>
       <c r="F63" s="1">
@@ -1009,7 +1017,7 @@
       <c r="D64" s="1">
         <v>0.70389000000000002</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E64" s="3">
         <v>-1108599573.18925</v>
       </c>
       <c r="F64" s="1">
@@ -1026,7 +1034,7 @@
       <c r="D65" s="1">
         <v>0.76072899999999999</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E65" s="3">
         <v>-1091548193.0015099</v>
       </c>
       <c r="F65" s="1">
@@ -1043,7 +1051,7 @@
       <c r="D66" s="1">
         <v>2.6761080000000002</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E66" s="3">
         <v>-9429129769.5505104</v>
       </c>
       <c r="F66" s="1">
@@ -1060,7 +1068,7 @@
       <c r="D67" s="1">
         <v>2.4736790000000002</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="3">
         <v>-12445247273.3456</v>
       </c>
       <c r="F67" s="1">
@@ -1077,7 +1085,7 @@
       <c r="D68" s="1">
         <v>50.631619999999998</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E68" s="3">
         <v>-40018842137.334801</v>
       </c>
       <c r="F68" s="1">
@@ -1099,7 +1107,7 @@
       <c r="D76" s="1">
         <v>7.4661470000000003</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E76" s="3">
         <v>-19131737943.5672</v>
       </c>
       <c r="F76" s="1">
@@ -1108,7 +1116,7 @@
       <c r="G76" s="2">
         <v>9.169506E-5</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="4">
         <v>26718.143559</v>
       </c>
     </row>
@@ -1119,7 +1127,7 @@
       <c r="D77" s="1">
         <v>0.49022100000000002</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="3">
         <v>-1108599573.18925</v>
       </c>
       <c r="F77" s="1">
@@ -1128,7 +1136,7 @@
       <c r="G77" s="2">
         <v>9.8180840000000003E-5</v>
       </c>
-      <c r="H77" s="5">
+      <c r="H77" s="4">
         <v>7144.5482140000004</v>
       </c>
     </row>
@@ -1139,7 +1147,7 @@
       <c r="D78" s="1">
         <v>0.552122</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E78" s="3">
         <v>-1091548193.0015099</v>
       </c>
       <c r="F78" s="1">
@@ -1148,7 +1156,7 @@
       <c r="G78" s="2">
         <v>6.3577990000000006E-5</v>
       </c>
-      <c r="H78" s="5">
+      <c r="H78" s="4">
         <v>7903.3842000000004</v>
       </c>
     </row>
@@ -1159,7 +1167,7 @@
       <c r="D79" s="1">
         <v>2.6313219999999999</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E79" s="3">
         <v>-9429129769.5505104</v>
       </c>
       <c r="F79" s="1">
@@ -1168,7 +1176,7 @@
       <c r="G79" s="2">
         <v>8.695911E-5</v>
       </c>
-      <c r="H79" s="5">
+      <c r="H79" s="4">
         <v>21395.599388999999</v>
       </c>
     </row>
@@ -1179,7 +1187,7 @@
       <c r="D80" s="1">
         <v>2.1431239999999998</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E80" s="3">
         <v>-12445247273.3456</v>
       </c>
       <c r="F80" s="1">
@@ -1188,7 +1196,7 @@
       <c r="G80" s="2">
         <v>7.5154839999999997E-5</v>
       </c>
-      <c r="H80" s="5">
+      <c r="H80" s="4">
         <v>22109.497549</v>
       </c>
     </row>
@@ -1199,7 +1207,7 @@
       <c r="D81" s="1">
         <v>55.133651999999998</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E81" s="3">
         <v>-40018842137.334801</v>
       </c>
       <c r="F81" s="1">
@@ -1208,22 +1216,12 @@
       <c r="G81" s="2">
         <v>2.1592790000000001E-3</v>
       </c>
-      <c r="H81" s="5">
+      <c r="H81" s="4">
         <v>41299.961920000002</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="O31:T31"/>
-    <mergeCell ref="O32:T32"/>
-    <mergeCell ref="O33:T33"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="O34:T34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="O35:T35"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
@@ -1231,6 +1229,16 @@
     <mergeCell ref="I31:N31"/>
     <mergeCell ref="C29:H29"/>
     <mergeCell ref="A28:E28"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="O34:T34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="O35:T35"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="O31:T31"/>
+    <mergeCell ref="O32:T32"/>
+    <mergeCell ref="O33:T33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06743AD6-42F1-B14B-BC08-2205EB9EF5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7ED7B-9C87-1449-95ED-52062590C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17680" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="11220" yWindow="500" windowWidth="19800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
   <si>
     <t>6wji</t>
   </si>
@@ -138,6 +138,27 @@
   </si>
   <si>
     <t>pdb2pqr30 --ff=AMBER --drop-water 7sts.pdb 7sts.pqr</t>
+  </si>
+  <si>
+    <t>count=10290</t>
+  </si>
+  <si>
+    <t>natm=nchr=10182</t>
+  </si>
+  <si>
+    <t>nspt=37740, natm=10182, den=1.000000, prob=1.400000</t>
+  </si>
+  <si>
+    <t>nface=75512, natm=10182, den=1.000000, prob=1.400000</t>
+  </si>
+  <si>
+    <t>nspt=30819, natm=8459, den=1.000000, prob=1.400000</t>
+  </si>
+  <si>
+    <t>nface=61650, natm=8459, den=1.000000, prob=1.400000</t>
+  </si>
+  <si>
+    <t>count=8640</t>
   </si>
 </sst>
 </file>
@@ -507,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
-  <dimension ref="A1:T81"/>
+  <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H82" sqref="D81:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1048,7 @@
         <v>9.8180840000000003E-5</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1065,7 @@
         <v>6.3577990000000006E-5</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>18</v>
       </c>
@@ -1061,7 +1082,7 @@
         <v>8.695911E-5</v>
       </c>
     </row>
-    <row r="67" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>21</v>
       </c>
@@ -1078,7 +1099,7 @@
         <v>7.5154839999999997E-5</v>
       </c>
     </row>
-    <row r="68" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>22</v>
       </c>
@@ -1095,100 +1116,74 @@
         <v>2.1592790000000001E-3</v>
       </c>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>7.4661470000000003</v>
+        <v>10.899953</v>
       </c>
       <c r="E76" s="3">
-        <v>-19131737943.5672</v>
+        <v>-16294.416738</v>
       </c>
       <c r="F76" s="1">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="G76" s="2">
-        <v>9.169506E-5</v>
+        <v>9.7414470000000005E-5</v>
       </c>
       <c r="H76" s="4">
-        <v>26718.143559</v>
-      </c>
-    </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.2">
+        <v>26709.041541999999</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="W76" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="1">
-        <v>0.49022100000000002</v>
-      </c>
-      <c r="E77" s="3">
-        <v>-1108599573.18925</v>
-      </c>
-      <c r="F77" s="1">
-        <v>20</v>
-      </c>
-      <c r="G77" s="2">
-        <v>9.8180840000000003E-5</v>
-      </c>
-      <c r="H77" s="4">
-        <v>7144.5482140000004</v>
-      </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="1">
-        <v>0.552122</v>
-      </c>
-      <c r="E78" s="3">
-        <v>-1091548193.0015099</v>
-      </c>
-      <c r="F78" s="1">
-        <v>17</v>
-      </c>
-      <c r="G78" s="2">
-        <v>6.3577990000000006E-5</v>
-      </c>
-      <c r="H78" s="4">
-        <v>7903.3842000000004</v>
-      </c>
-    </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="1">
-        <v>2.6313219999999999</v>
-      </c>
-      <c r="E79" s="3">
-        <v>-9429129769.5505104</v>
-      </c>
-      <c r="F79" s="1">
-        <v>22</v>
-      </c>
-      <c r="G79" s="2">
-        <v>8.695911E-5</v>
-      </c>
-      <c r="H79" s="4">
-        <v>21395.599388999999</v>
-      </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="1">
-        <v>2.1431239999999998</v>
+        <v>4.4056490000000004</v>
       </c>
       <c r="E80" s="3">
-        <v>-12445247273.3456</v>
+        <v>-7182.7442499999997</v>
       </c>
       <c r="F80" s="1">
         <v>13</v>
@@ -1199,29 +1194,25 @@
       <c r="H80" s="4">
         <v>22109.497549</v>
       </c>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="K80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q80" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D81" s="1">
-        <v>55.133651999999998</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-40018842137.334801</v>
-      </c>
-      <c r="F81" s="1">
-        <v>100</v>
-      </c>
-      <c r="G81" s="2">
-        <v>2.1592790000000001E-3</v>
-      </c>
-      <c r="H81" s="4">
-        <v>41299.961920000002</v>
-      </c>
+      <c r="G81" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="18">
+    <mergeCell ref="O76:S76"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>

--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE7ED7B-9C87-1449-95ED-52062590C3DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19D317-66E7-5E49-9617-D31F934A1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11220" yWindow="500" windowWidth="19800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
   <dimension ref="A1:W81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H82" sqref="D81:H82"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,103 +614,51 @@
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
-        <v>48.376350000000002</v>
-      </c>
-      <c r="E10" s="3">
-        <v>-19131737943.5672</v>
-      </c>
-      <c r="F10" s="1">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2">
-        <v>9.169506E-5</v>
-      </c>
+      <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="1">
-        <v>5.5767610000000003</v>
-      </c>
-      <c r="E11" s="3">
-        <v>-1108599573.18925</v>
-      </c>
-      <c r="F11" s="1">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>9.8180840000000003E-5</v>
-      </c>
+      <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="1">
-        <v>3.0717219999999998</v>
-      </c>
-      <c r="E12" s="3">
-        <v>-1091548193.0015099</v>
-      </c>
-      <c r="F12" s="1">
-        <v>17</v>
-      </c>
-      <c r="G12" s="2">
-        <v>6.3577990000000006E-5</v>
-      </c>
+      <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="1">
-        <v>18.164584999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>-9429129769.5504799</v>
-      </c>
-      <c r="F13" s="1">
-        <v>22</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8.695911E-5</v>
-      </c>
+      <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="1">
-        <v>17.803811</v>
+        <v>40.547033999999996</v>
       </c>
       <c r="E14" s="3">
-        <v>-12445247273.3456</v>
+        <v>-7182.7442499999997</v>
       </c>
       <c r="F14" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G14" s="2">
-        <v>7.5154839999999997E-5</v>
+        <v>9.459444E-5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>22102.487419000001</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1">
-        <v>344.30739699999998</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-40018842137.321198</v>
-      </c>
-      <c r="F15" s="1">
-        <v>100</v>
-      </c>
-      <c r="G15" s="2">
-        <v>2.1592790000000001E-3</v>
-      </c>
+      <c r="G15" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">

--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E19D317-66E7-5E49-9617-D31F934A1D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C329A-D998-4F44-9D7B-FDAA02A36A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11220" yWindow="500" windowWidth="19800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="10660" yWindow="500" windowWidth="19800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="39">
   <si>
     <t>6wji</t>
   </si>
   <si>
-    <t>salloc -p standard-mem-m -N8 -n256 --x11=first</t>
-  </si>
-  <si>
     <t>module load gcc-9.2 hpcx</t>
   </si>
   <si>
@@ -56,9 +53,6 @@
     <t>openmp</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -140,25 +134,25 @@
     <t>pdb2pqr30 --ff=AMBER --drop-water 7sts.pdb 7sts.pqr</t>
   </si>
   <si>
-    <t>count=10290</t>
-  </si>
-  <si>
-    <t>natm=nchr=10182</t>
-  </si>
-  <si>
-    <t>nspt=37740, natm=10182, den=1.000000, prob=1.400000</t>
-  </si>
-  <si>
-    <t>nface=75512, natm=10182, den=1.000000, prob=1.400000</t>
-  </si>
-  <si>
-    <t>nspt=30819, natm=8459, den=1.000000, prob=1.400000</t>
-  </si>
-  <si>
-    <t>nface=61650, natm=8459, den=1.000000, prob=1.400000</t>
-  </si>
-  <si>
-    <t>count=8640</t>
+    <t>nspt</t>
+  </si>
+  <si>
+    <t>natm</t>
+  </si>
+  <si>
+    <t>den=12</t>
+  </si>
+  <si>
+    <t>prob=1.4</t>
+  </si>
+  <si>
+    <t>nface</t>
+  </si>
+  <si>
+    <t>salloc -p mic -N8 -n2048 --x11=first</t>
+  </si>
+  <si>
+    <t>CPU</t>
   </si>
 </sst>
 </file>
@@ -528,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
-  <dimension ref="A1:W81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -548,41 +542,41 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -590,79 +584,83 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>320617</v>
+      </c>
+      <c r="J10" s="1">
+        <v>641266</v>
+      </c>
+      <c r="K10" s="1">
+        <v>10182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="1">
-        <v>40.547033999999996</v>
-      </c>
-      <c r="E14" s="3">
-        <v>-7182.7442499999997</v>
-      </c>
-      <c r="F14" s="1">
-        <v>31</v>
-      </c>
-      <c r="G14" s="2">
-        <v>9.459444E-5</v>
-      </c>
-      <c r="H14" s="4">
-        <v>22102.487419000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -671,7 +669,7 @@
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C29" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -681,45 +679,40 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H30" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D31" s="1">
-        <v>550.46839899999998</v>
-      </c>
-      <c r="E31" s="3">
-        <v>-19131737943.5672</v>
-      </c>
-      <c r="F31" s="1">
-        <v>42</v>
-      </c>
-      <c r="G31" s="2">
-        <v>9.169506E-5</v>
-      </c>
-      <c r="H31" s="4">
-        <v>26718.143559</v>
-      </c>
+      <c r="G31" s="2"/>
       <c r="I31" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
@@ -727,7 +720,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
@@ -737,25 +730,11 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="1">
-        <v>21.301463999999999</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1108599573.18925</v>
-      </c>
-      <c r="F32" s="1">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2">
-        <v>9.8180840000000003E-5</v>
-      </c>
-      <c r="H32" s="4">
-        <v>7144.5482140000004</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="I32" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
@@ -763,7 +742,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="P32" s="5"/>
       <c r="Q32" s="5"/>
@@ -773,25 +752,11 @@
     </row>
     <row r="33" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="1">
-        <v>22.284164000000001</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-1091548193.0015099</v>
-      </c>
-      <c r="F33" s="1">
+        <v>12</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="I33" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="G33" s="2">
-        <v>6.3577990000000006E-5</v>
-      </c>
-      <c r="H33" s="4">
-        <v>7903.3842000000004</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>19</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
@@ -799,7 +764,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
@@ -809,25 +774,11 @@
     </row>
     <row r="34" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="1">
-        <v>183.005979</v>
-      </c>
-      <c r="E34" s="3">
-        <v>-9429129769.5504799</v>
-      </c>
-      <c r="F34" s="1">
-        <v>22</v>
-      </c>
-      <c r="G34" s="2">
-        <v>8.695911E-5</v>
-      </c>
-      <c r="H34" s="4">
-        <v>21395.599388999999</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="I34" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
@@ -835,7 +786,7 @@
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
       <c r="O34" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
@@ -845,25 +796,11 @@
     </row>
     <row r="35" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="1">
-        <v>115.520646</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-12445247273.3456</v>
-      </c>
-      <c r="F35" s="1">
-        <v>13</v>
-      </c>
-      <c r="G35" s="2">
-        <v>7.5154839999999997E-5</v>
-      </c>
-      <c r="H35" s="4">
-        <v>22109.497549</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="I35" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
@@ -871,7 +808,7 @@
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -881,12 +818,12 @@
     </row>
     <row r="36" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C36" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C47" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -896,25 +833,34 @@
     </row>
     <row r="48" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>0</v>
       </c>
@@ -922,241 +868,316 @@
         <v>26718.143559</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D59" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
       <c r="D60" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D63" s="1">
-        <v>7.5186270000000004</v>
-      </c>
-      <c r="E63" s="3">
-        <v>-19131737943.5672</v>
-      </c>
-      <c r="F63" s="1">
-        <v>42</v>
-      </c>
-      <c r="G63" s="2">
-        <v>9.169506E-5</v>
-      </c>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D64" s="1">
-        <v>0.70389000000000002</v>
-      </c>
-      <c r="E64" s="3">
-        <v>-1108599573.18925</v>
-      </c>
-      <c r="F64" s="1">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G64" s="2">
-        <v>9.8180840000000003E-5</v>
-      </c>
-    </row>
-    <row r="65" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C65" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D65" s="1">
-        <v>0.76072899999999999</v>
-      </c>
-      <c r="E65" s="3">
-        <v>-1091548193.0015099</v>
-      </c>
-      <c r="F65" s="1">
-        <v>17</v>
-      </c>
-      <c r="G65" s="2">
-        <v>6.3577990000000006E-5</v>
-      </c>
-    </row>
-    <row r="66" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" s="1">
-        <v>2.6761080000000002</v>
-      </c>
-      <c r="E66" s="3">
-        <v>-9429129769.5505104</v>
-      </c>
-      <c r="F66" s="1">
-        <v>22</v>
-      </c>
-      <c r="G66" s="2">
-        <v>8.695911E-5</v>
-      </c>
-    </row>
-    <row r="67" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C67" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D67" s="1">
-        <v>2.4736790000000002</v>
-      </c>
-      <c r="E67" s="3">
-        <v>-12445247273.3456</v>
-      </c>
-      <c r="F67" s="1">
-        <v>13</v>
-      </c>
-      <c r="G67" s="2">
-        <v>7.5154839999999997E-5</v>
-      </c>
-    </row>
-    <row r="68" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="C68" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D68" s="1">
-        <v>50.631619999999998</v>
-      </c>
-      <c r="E68" s="3">
-        <v>-40018842137.334801</v>
-      </c>
-      <c r="F68" s="1">
-        <v>100</v>
-      </c>
-      <c r="G68" s="2">
-        <v>2.1592790000000001E-3</v>
-      </c>
-    </row>
-    <row r="75" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="J75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>10.899953</v>
+        <v>147.77355700000001</v>
       </c>
       <c r="E76" s="3">
-        <v>-16294.416738</v>
+        <v>-14016.023608</v>
       </c>
       <c r="F76" s="1">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="G76" s="2">
-        <v>9.7414470000000005E-5</v>
+        <v>9.8518579999999994E-5</v>
       </c>
       <c r="H76" s="4">
-        <v>26709.041541999999</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>28116.879793</v>
+      </c>
+      <c r="I76" s="1">
+        <v>320617</v>
+      </c>
+      <c r="J76" s="1">
+        <v>641266</v>
+      </c>
+      <c r="K76" s="1">
+        <v>10182</v>
+      </c>
+      <c r="O76" s="5"/>
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
-      <c r="W76" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="77" spans="3:23" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="3:23" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="D77" s="1">
+        <v>8.2588030000000003</v>
+      </c>
+      <c r="E77" s="3">
+        <v>-1941.8134680000001</v>
+      </c>
+      <c r="F77" s="1">
+        <v>10</v>
+      </c>
+      <c r="G77" s="2">
+        <v>8.481567E-5</v>
+      </c>
+      <c r="H77" s="4">
+        <v>7516.4431050000003</v>
+      </c>
+      <c r="I77" s="1">
+        <v>84986</v>
+      </c>
+      <c r="J77" s="1">
+        <v>169968</v>
+      </c>
+      <c r="K77" s="1">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D78" s="1">
+        <v>16.865532000000002</v>
+      </c>
+      <c r="E78" s="3">
+        <v>-1934.4890150000001</v>
+      </c>
+      <c r="F78" s="1">
         <v>14</v>
       </c>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="G78" s="2">
+        <v>8.6850569999999996E-5</v>
+      </c>
+      <c r="H78" s="4">
+        <v>8286.7008700000006</v>
+      </c>
+      <c r="I78" s="1">
+        <v>94027</v>
+      </c>
+      <c r="J78" s="1">
+        <v>188054</v>
+      </c>
+      <c r="K78" s="1">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="3:23" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D79" s="1">
+        <v>724.46763499999997</v>
+      </c>
+      <c r="E79" s="3">
+        <v>-5786.6945459999997</v>
+      </c>
+      <c r="F79" s="1">
+        <v>100</v>
+      </c>
+      <c r="G79" s="2">
+        <v>2.3087269999999999E-4</v>
+      </c>
+      <c r="H79" s="4">
+        <v>22524.232942999999</v>
+      </c>
+      <c r="I79" s="1">
+        <v>256613</v>
+      </c>
+      <c r="J79" s="1">
+        <v>513226</v>
+      </c>
+      <c r="K79" s="1">
+        <v>8133</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D80" s="1">
-        <v>4.4056490000000004</v>
+        <v>125.63612500000001</v>
       </c>
       <c r="E80" s="3">
-        <v>-7182.7442499999997</v>
+        <v>-6013.6818640000001</v>
       </c>
       <c r="F80" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G80" s="2">
-        <v>7.5154839999999997E-5</v>
-      </c>
-      <c r="H80" s="4">
-        <v>22109.497549</v>
-      </c>
-      <c r="K80" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q80" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81" spans="3:7" x14ac:dyDescent="0.2">
+        <v>8.5079560000000002E-5</v>
+      </c>
+      <c r="H80" s="1">
+        <v>23244.854138999999</v>
+      </c>
+      <c r="I80" s="1">
+        <v>265036</v>
+      </c>
+      <c r="J80" s="1">
+        <v>530084</v>
+      </c>
+      <c r="K80" s="1">
+        <v>8459</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D81" s="1">
+        <v>2564.784885</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-11583.257321999999</v>
       </c>
       <c r="G81" s="2"/>
+      <c r="H81" s="4">
+        <v>43457.632870000001</v>
+      </c>
+      <c r="I81" s="1">
+        <v>496762</v>
+      </c>
+      <c r="J81" s="1">
+        <v>993572</v>
+      </c>
+      <c r="K81" s="1">
+        <v>15797</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">

--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603C329A-D998-4F44-9D7B-FDAA02A36A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8943DF0C-309E-AD42-B471-D75EAA43A238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="500" windowWidth="19800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="13540" yWindow="500" windowWidth="19800" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
   <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,7 +617,21 @@
       <c r="C10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="D10" s="1">
+        <v>7394.804991</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-14016.023608</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2">
+        <v>9.8518579999999994E-5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>7394.8060569999998</v>
+      </c>
       <c r="I10" s="1">
         <v>320617</v>
       </c>
@@ -936,37 +950,103 @@
       <c r="C63" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G63" s="2"/>
+      <c r="D63" s="1">
+        <v>147.82078300000001</v>
+      </c>
+      <c r="E63" s="3">
+        <v>-14016.023608</v>
+      </c>
+      <c r="F63" s="1">
+        <v>14</v>
+      </c>
+      <c r="G63" s="2">
+        <v>9.8518579999999994E-5</v>
+      </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G64" s="2"/>
+      <c r="D64" s="1">
+        <v>9.9428260000000002</v>
+      </c>
+      <c r="E64" s="3">
+        <v>-1941.8134680000001</v>
+      </c>
+      <c r="F64" s="1">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2">
+        <v>8.481567E-5</v>
+      </c>
     </row>
     <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G65" s="2"/>
+      <c r="D65" s="1">
+        <v>17.039887</v>
+      </c>
+      <c r="E65" s="3">
+        <v>-1934.4890150000001</v>
+      </c>
+      <c r="F65" s="1">
+        <v>14</v>
+      </c>
+      <c r="G65" s="2">
+        <v>8.6850569999999996E-5</v>
+      </c>
     </row>
     <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G66" s="2"/>
+      <c r="D66" s="1">
+        <v>744.16571199999998</v>
+      </c>
+      <c r="E66" s="3">
+        <v>-5786.6945459999997</v>
+      </c>
+      <c r="F66" s="1">
+        <v>100</v>
+      </c>
+      <c r="G66" s="2">
+        <v>2.3087269999999999E-4</v>
+      </c>
     </row>
     <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="2"/>
+      <c r="D67" s="1">
+        <v>128.15725800000001</v>
+      </c>
+      <c r="E67" s="3">
+        <v>-6013.6818640000001</v>
+      </c>
+      <c r="F67" s="1">
+        <v>17</v>
+      </c>
+      <c r="G67" s="2">
+        <v>8.5079560000000002E-5</v>
+      </c>
     </row>
     <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G68" s="2"/>
+      <c r="D68" s="1">
+        <v>2622.8670769999999</v>
+      </c>
+      <c r="E68" s="3">
+        <v>-11583.257321999999</v>
+      </c>
+      <c r="F68" s="1">
+        <v>100</v>
+      </c>
+      <c r="G68" s="2">
+        <v>9.4290120000000005E-3</v>
+      </c>
     </row>
     <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
@@ -1165,7 +1245,12 @@
       <c r="E81" s="3">
         <v>-11583.257321999999</v>
       </c>
-      <c r="G81" s="2"/>
+      <c r="F81" s="1">
+        <v>100</v>
+      </c>
+      <c r="G81" s="2">
+        <v>9.4290120000000005E-3</v>
+      </c>
       <c r="H81" s="4">
         <v>43457.632870000001</v>
       </c>

--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266B038-A957-6E4A-9F13-530A553F5DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF48DEA-3FD9-E04F-AB2F-58F65B5E89B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12920" yWindow="500" windowWidth="26320" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="17280" yWindow="500" windowWidth="26320" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
   <si>
     <t>6wji</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>OMP28</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>MPI for 7n3c</t>
   </si>
 </sst>
 </file>
@@ -544,8 +550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
   <dimension ref="A1:U77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -720,6 +726,9 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -737,6 +746,9 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -754,6 +766,9 @@
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -771,6 +786,9 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -788,6 +806,9 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B16" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="1" t="s">
         <v>12</v>
       </c>
@@ -856,7 +877,18 @@
       <c r="C25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G25" s="2"/>
+      <c r="D25" s="1">
+        <v>235982.21231900001</v>
+      </c>
+      <c r="E25" s="3">
+        <v>-14016.023608</v>
+      </c>
+      <c r="F25" s="1">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2">
+        <v>9.8518579999999994E-5</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
@@ -920,7 +952,18 @@
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="D29" s="1">
+        <v>194614.874656</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-6013.6818640000001</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17</v>
+      </c>
+      <c r="G29" s="2">
+        <v>8.5079560000000002E-5</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
@@ -1313,7 +1356,75 @@
         <v>15797</v>
       </c>
     </row>
-    <row r="77" spans="15:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C64" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C65" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C66" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C67" s="1">
+        <v>16</v>
+      </c>
+      <c r="D67" s="1">
+        <v>90898.775190999993</v>
+      </c>
+    </row>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C68" s="1">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1">
+        <v>45449.291109999998</v>
+      </c>
+    </row>
+    <row r="69" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C69" s="1">
+        <v>64</v>
+      </c>
+      <c r="D69" s="1">
+        <v>24142.298532000001</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C70" s="1">
+        <v>128</v>
+      </c>
+      <c r="D70" s="1">
+        <v>12041.327605</v>
+      </c>
+    </row>
+    <row r="71" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C71" s="1">
+        <v>256</v>
+      </c>
+      <c r="D71" s="1">
+        <v>6027.2320570000002</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.2">
       <c r="O77" s="5"/>
       <c r="P77" s="5"/>
       <c r="Q77" s="5"/>

--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF48DEA-3FD9-E04F-AB2F-58F65B5E89B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD80ECB-F1D6-1740-8D0E-DA5719A24577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="500" windowWidth="26320" windowHeight="16180" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="9700" yWindow="500" windowWidth="19100" windowHeight="16020" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="54">
   <si>
     <t>6wji</t>
   </si>
@@ -162,6 +162,42 @@
   </si>
   <si>
     <t>MPI for 7n3c</t>
+  </si>
+  <si>
+    <t>mic</t>
+  </si>
+  <si>
+    <t>standard-mem-s</t>
+  </si>
+  <si>
+    <t>1152MPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iteration check </t>
+  </si>
+  <si>
+    <t>Kokkos</t>
+  </si>
+  <si>
+    <t>TABI</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>mac=0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mac </t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>standard-mem</t>
   </si>
 </sst>
 </file>
@@ -171,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -180,14 +216,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF2D3B45"/>
       <name val="Monaco"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF008000"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -200,7 +255,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -208,16 +263,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -226,13 +363,53 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,896 +725,1330 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
-  <dimension ref="A1:U77"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="116" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="27.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="8.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="11.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.83203125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="27.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="7" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" style="4" customWidth="1"/>
+    <col min="10" max="12" width="10.83203125" style="4"/>
+    <col min="13" max="13" width="11.1640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="8.83203125" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="F2" s="6" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="F2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U3" s="7" t="s">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="U4" s="7" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="U4" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="U5" s="7" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="U5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="U6" s="7" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="U6" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="U7" s="7" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U7" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D8" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="U8" s="7" t="s">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="N8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="I9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="V9" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="4">
         <v>7394.804991</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="5">
         <v>-14016.023608</v>
       </c>
-      <c r="F10" s="1">
+      <c r="G10" s="4">
         <v>14</v>
       </c>
-      <c r="G10" s="2">
+      <c r="H10" s="8">
         <v>9.8518579999999994E-5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="I10" s="6">
         <v>7394.8060569999998</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="4">
         <v>320617</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="4">
         <v>641266</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="4">
         <v>10182</v>
       </c>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="4">
+        <v>569.20084799999995</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="4">
         <v>2116.6449689999999</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="5">
         <v>-14016.023608</v>
       </c>
-      <c r="F11" s="1">
+      <c r="G11" s="4">
         <v>14</v>
       </c>
-      <c r="G11" s="2">
+      <c r="H11" s="8">
         <v>9.8518579999999994E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="4">
+        <v>63.986542</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="4">
         <v>572.41321100000005</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="5">
         <v>-1941.8134680000001</v>
       </c>
-      <c r="F12" s="1">
+      <c r="G12" s="4">
         <v>10</v>
       </c>
-      <c r="G12" s="2">
+      <c r="H12" s="8">
         <v>8.481567E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="4">
+        <v>58.552599999999998</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="4">
         <v>669.31340899999998</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="5">
         <v>-1934.4890150000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="G13" s="4">
         <v>14</v>
       </c>
-      <c r="G13" s="2">
+      <c r="H13" s="8">
         <v>8.6850569999999996E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" s="4">
+        <v>2600.0215149999999</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="4">
         <v>10019.004955</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="5">
         <v>-5786.6945459999997</v>
       </c>
-      <c r="F14" s="1">
+      <c r="G14" s="4">
         <v>100</v>
       </c>
-      <c r="G14" s="2">
+      <c r="H14" s="8">
         <v>2.3087269999999999E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" s="4">
+        <v>235.600101</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="4">
         <v>2931.4725480000002</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="5">
         <v>-6013.6818640000001</v>
       </c>
-      <c r="F15" s="1">
+      <c r="G15" s="4">
         <v>17</v>
       </c>
-      <c r="G15" s="2">
+      <c r="H15" s="8">
         <v>8.5079560000000002E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" s="4">
+        <v>6929.7805040000003</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E16" s="4">
         <v>36187.866071999997</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="5">
         <v>-11583.257321999999</v>
       </c>
-      <c r="F16" s="1">
+      <c r="G16" s="4">
         <v>100</v>
       </c>
-      <c r="G16" s="2">
+      <c r="H16" s="8">
         <v>9.4290120000000005E-3</v>
       </c>
+      <c r="I16" s="6"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="4">
         <v>235982.21231900001</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <v>-14016.023608</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="4">
         <v>14</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="8">
         <v>9.8518579999999994E-5</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="4">
         <v>12064.077574999999</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <v>-1941.8134680000001</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="4">
         <v>10</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="8">
         <v>8.481567E-5</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O26" s="4">
         <v>10994.500612</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="5">
         <v>-1941.8134680000001</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="4">
         <v>10</v>
       </c>
-      <c r="R26" s="2">
+      <c r="R26" s="8">
         <v>8.481567E-5</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26" s="6">
         <v>7516.4431050000003</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="4">
         <v>21610.738259000002</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <v>-1934.4890150000001</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="4">
         <v>14</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="8">
         <v>8.6850569999999996E-5</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="D28" s="4">
+        <v>989152.49150500004</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-5786.6945459999997</v>
+      </c>
+      <c r="F28" s="4">
+        <v>100</v>
+      </c>
+      <c r="G28" s="8"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="4">
         <v>194614.874656</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <v>-6013.6818640000001</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="4">
         <v>17</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="8">
         <v>8.5079560000000002E-5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F30" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="24"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="5"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="4">
         <v>147.82078300000001</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <v>-14016.023608</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="4">
         <v>14</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="8">
         <v>9.8518579999999994E-5</v>
       </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="4">
         <v>9.9428260000000002</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <v>-1941.8134680000001</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="4">
         <v>10</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="8">
         <v>8.481567E-5</v>
       </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="4">
         <v>17.039887</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <v>-1934.4890150000001</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="4">
         <v>14</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="8">
         <v>8.6850569999999996E-5</v>
       </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="4">
         <v>744.16571199999998</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <v>-5786.6945459999997</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="4">
         <v>100</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="8">
         <v>2.3087269999999999E-4</v>
       </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="4">
         <v>128.15725800000001</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <v>-6013.6818640000001</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="4">
         <v>17</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="8">
         <v>8.5079560000000002E-5</v>
       </c>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="4">
         <v>2622.8670769999999</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <v>-11583.257321999999</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="4">
         <v>100</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="8">
         <v>9.4290120000000005E-3</v>
       </c>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="49" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H49" s="4" t="s">
+      <c r="H49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="50" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50" s="4">
         <v>147.77355700000001</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <v>-14016.023608</v>
       </c>
-      <c r="F50" s="1">
+      <c r="F50" s="4">
         <v>14</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="8">
         <v>9.8518579999999994E-5</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H50" s="6">
         <v>28116.879793</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="4">
         <v>320617</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="4">
         <v>641266</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="4">
         <v>10182</v>
       </c>
     </row>
     <row r="51" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="4">
         <v>8.2588030000000003</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <v>-1941.8134680000001</v>
       </c>
-      <c r="F51" s="1">
+      <c r="F51" s="4">
         <v>10</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="8">
         <v>8.481567E-5</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="6">
         <v>7516.4431050000003</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="4">
         <v>84986</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="4">
         <v>169968</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="4">
         <v>2083</v>
       </c>
     </row>
     <row r="52" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="1">
+      <c r="D52" s="4">
         <v>16.865532000000002</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <v>-1934.4890150000001</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="4">
         <v>14</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="8">
         <v>8.6850569999999996E-5</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H52" s="6">
         <v>8286.7008700000006</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="4">
         <v>94027</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="4">
         <v>188054</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="4">
         <v>2352</v>
       </c>
     </row>
     <row r="53" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D53" s="1">
+      <c r="D53" s="4">
         <v>724.46763499999997</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <v>-5786.6945459999997</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F53" s="4">
         <v>100</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="8">
         <v>2.3087269999999999E-4</v>
       </c>
-      <c r="H53" s="4">
+      <c r="H53" s="6">
         <v>22524.232942999999</v>
       </c>
-      <c r="I53" s="1">
+      <c r="I53" s="4">
         <v>256613</v>
       </c>
-      <c r="J53" s="1">
+      <c r="J53" s="4">
         <v>513226</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="4">
         <v>8133</v>
       </c>
     </row>
     <row r="54" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1">
+      <c r="D54" s="4">
         <v>125.63612500000001</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <v>-6013.6818640000001</v>
       </c>
-      <c r="F54" s="1">
+      <c r="F54" s="4">
         <v>17</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="8">
         <v>8.5079560000000002E-5</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H54" s="4">
         <v>23244.854138999999</v>
       </c>
-      <c r="I54" s="1">
+      <c r="I54" s="4">
         <v>265036</v>
       </c>
-      <c r="J54" s="1">
+      <c r="J54" s="4">
         <v>530084</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="4">
         <v>8459</v>
       </c>
     </row>
     <row r="55" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="4">
         <v>2564.784885</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="5">
         <v>-11583.257321999999</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="4">
         <v>100</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="8">
         <v>9.4290120000000005E-3</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="6">
         <v>43457.632870000001</v>
       </c>
-      <c r="I55" s="1">
+      <c r="I55" s="4">
         <v>496762</v>
       </c>
-      <c r="J55" s="1">
+      <c r="J55" s="4">
         <v>993572</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="4">
         <v>15797</v>
       </c>
     </row>
+    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="D61" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
     <row r="62" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="E62" s="4">
+        <v>195486.284403</v>
+      </c>
     </row>
     <row r="63" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C63" s="1">
+      <c r="C63" s="4">
         <v>1</v>
       </c>
+      <c r="E63" s="2">
+        <f>J64*E64</f>
+        <v>196639.31910429295</v>
+      </c>
+      <c r="F63" s="4">
+        <f>$E$63/E63/C63*100</f>
+        <v>100</v>
+      </c>
+      <c r="H63" s="6">
+        <f>$E$63/E63*100</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="64" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C64" s="1">
+      <c r="C64" s="4">
         <v>2</v>
       </c>
+      <c r="D64" s="4">
+        <v>730412.46389500005</v>
+      </c>
+      <c r="E64" s="5">
+        <v>99298.834677999999</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" ref="F64:F71" si="0">$E$63/E64/C64*100</f>
+        <v>99.013910758339989</v>
+      </c>
+      <c r="H64" s="6">
+        <f>$E$63/E64*100</f>
+        <v>198.02782151667998</v>
+      </c>
+      <c r="I64" s="4">
+        <f>E64/E65</f>
+        <v>1.9404760032228976</v>
+      </c>
+      <c r="J64" s="4">
+        <f>AVERAGE(I66:I70)</f>
+        <v>1.9802782151667997</v>
+      </c>
     </row>
     <row r="65" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C65" s="1">
+      <c r="C65" s="4">
         <v>4</v>
       </c>
+      <c r="D65" s="4">
+        <v>363665.11350600002</v>
+      </c>
+      <c r="E65" s="5">
+        <v>51172.410538999997</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="0"/>
+        <v>96.067058905906123</v>
+      </c>
+      <c r="G65" s="4">
+        <v>1</v>
+      </c>
+      <c r="H65" s="6">
+        <f t="shared" ref="H65:H71" si="1">$E$63/E65*100</f>
+        <v>384.26823562362449</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" ref="I65:I71" si="2">E65/E66</f>
+        <v>1.707997924039236</v>
+      </c>
     </row>
     <row r="66" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C66" s="1">
+      <c r="C66" s="4">
         <v>8</v>
       </c>
+      <c r="D66" s="4">
+        <v>193105.75776800001</v>
+      </c>
+      <c r="E66" s="5">
+        <v>29960.464131000001</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="0"/>
+        <v>82.041168589921327</v>
+      </c>
+      <c r="G66" s="4">
+        <v>2</v>
+      </c>
+      <c r="H66" s="6">
+        <f t="shared" si="1"/>
+        <v>656.32934871937061</v>
+      </c>
+      <c r="I66" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9504679947982715</v>
+      </c>
     </row>
     <row r="67" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C67" s="1">
+      <c r="C67" s="4">
         <v>16</v>
       </c>
-      <c r="D67" s="1">
+      <c r="D67" s="4">
         <v>90898.775190999993</v>
       </c>
+      <c r="E67" s="5">
+        <v>15360.654064</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="0"/>
+        <v>80.009336795245403</v>
+      </c>
+      <c r="G67" s="4">
+        <v>4</v>
+      </c>
+      <c r="H67" s="6">
+        <f t="shared" si="1"/>
+        <v>1280.1493887239264</v>
+      </c>
+      <c r="I67" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9915868051425551</v>
+      </c>
     </row>
     <row r="68" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C68" s="1">
+      <c r="C68" s="4">
         <v>32</v>
       </c>
-      <c r="D68" s="1">
+      <c r="D68" s="4">
         <v>45449.291109999998</v>
       </c>
+      <c r="E68" s="5">
+        <v>7712.771557</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="0"/>
+        <v>79.672769724808717</v>
+      </c>
+      <c r="G68" s="4">
+        <v>8</v>
+      </c>
+      <c r="H68" s="6">
+        <f t="shared" si="1"/>
+        <v>2549.5286311938789</v>
+      </c>
+      <c r="I68" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9898850984667253</v>
+      </c>
     </row>
     <row r="69" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C69" s="1">
+      <c r="C69" s="4">
         <v>64</v>
       </c>
-      <c r="D69" s="1">
+      <c r="D69" s="4">
         <v>24142.298532000001</v>
       </c>
+      <c r="E69" s="5">
+        <v>3875.9883989999998</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="0"/>
+        <v>79.26982861448387</v>
+      </c>
+      <c r="G69" s="4">
+        <v>16</v>
+      </c>
+      <c r="H69" s="6">
+        <f t="shared" si="1"/>
+        <v>5073.2690313269677</v>
+      </c>
+      <c r="I69" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9909148729847419</v>
+      </c>
     </row>
     <row r="70" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C70" s="1">
+      <c r="C70" s="4">
         <v>128</v>
       </c>
-      <c r="D70" s="1">
+      <c r="D70" s="4">
         <v>12041.327605</v>
       </c>
+      <c r="E70" s="5">
+        <v>1946.8378339999999</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="0"/>
+        <v>78.909740383763719</v>
+      </c>
+      <c r="G70" s="4">
+        <v>32</v>
+      </c>
+      <c r="H70" s="6">
+        <f t="shared" si="1"/>
+        <v>10100.446769121756</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="2"/>
+        <v>1.9785363044417048</v>
+      </c>
     </row>
     <row r="71" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="C71" s="1">
+      <c r="C71" s="4">
         <v>256</v>
       </c>
-      <c r="D71" s="1">
+      <c r="D71" s="4">
         <v>6027.2320570000002</v>
       </c>
+      <c r="E71" s="5">
+        <v>983.97882800000002</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="0"/>
+        <v>78.062893061673094</v>
+      </c>
+      <c r="G71" s="4">
+        <v>64</v>
+      </c>
+      <c r="H71" s="6">
+        <f t="shared" si="1"/>
+        <v>19984.100623788312</v>
+      </c>
+      <c r="I71" s="4" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="77" spans="3:19" x14ac:dyDescent="0.2">
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="24"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="24"/>
+      <c r="S77" s="24"/>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="C80"/>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C81"/>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B82" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K82" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="4">
+        <v>36</v>
+      </c>
+      <c r="E83" s="5">
+        <v>-1945.7832820000001</v>
+      </c>
+      <c r="F83" s="4">
+        <v>36</v>
+      </c>
+      <c r="G83" s="4">
+        <v>-1945.7832820000001</v>
+      </c>
+      <c r="H83" s="4">
+        <v>10</v>
+      </c>
+      <c r="I83" s="10">
+        <v>-1948.9274852245001</v>
+      </c>
+      <c r="J83" s="4">
+        <v>10</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C84" s="3"/>
+      <c r="D84" s="4">
+        <v>10</v>
+      </c>
+      <c r="E84" s="5">
+        <v>-1941.8134680000001</v>
+      </c>
+      <c r="H84" s="4">
+        <v>10</v>
+      </c>
+      <c r="I84" s="10">
+        <v>-1945.18043081934</v>
+      </c>
+      <c r="J84" s="4">
+        <v>12</v>
+      </c>
+      <c r="K84" s="4">
+        <v>1</v>
+      </c>
+      <c r="L84" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C85" s="3"/>
+      <c r="H85" s="4">
+        <v>10</v>
+      </c>
+      <c r="I85" s="10">
+        <v>-1945.2368229561901</v>
+      </c>
+      <c r="J85" s="4">
+        <v>12</v>
+      </c>
+      <c r="K85" s="4">
+        <v>0</v>
+      </c>
+      <c r="L85" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C86" s="3"/>
+      <c r="H86" s="6">
+        <v>39</v>
+      </c>
+      <c r="I86" s="10">
+        <v>-1948.86409213603</v>
+      </c>
+      <c r="J86" s="4">
+        <v>10</v>
+      </c>
+      <c r="K86" s="4">
+        <v>0</v>
+      </c>
+      <c r="L86" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C87" s="3"/>
+      <c r="J87" s="4">
+        <v>10</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1</v>
+      </c>
+      <c r="L87" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C88" s="3"/>
+      <c r="D88" s="11">
+        <v>10</v>
+      </c>
+      <c r="E88" s="12">
+        <v>-2056.2605450000001</v>
+      </c>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14">
+        <v>10</v>
+      </c>
+      <c r="I88" s="14">
+        <v>-2057.61120207773</v>
+      </c>
+      <c r="J88" s="13">
+        <v>2</v>
+      </c>
+      <c r="K88" s="13">
+        <v>1</v>
+      </c>
+      <c r="L88" s="15">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D89" s="16"/>
+      <c r="H89" s="6">
+        <v>10</v>
+      </c>
+      <c r="I89" s="10">
+        <v>-2056.23636370963</v>
+      </c>
+      <c r="J89" s="4">
+        <v>2</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1</v>
+      </c>
+      <c r="L89" s="17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D90" s="18"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21">
+        <v>10</v>
+      </c>
+      <c r="I90" s="10">
+        <v>-2056.2363314454001</v>
+      </c>
+      <c r="J90" s="20">
+        <v>2</v>
+      </c>
+      <c r="K90" s="20">
+        <v>1</v>
+      </c>
+      <c r="L90" s="22">
+        <v>0.01</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="O77:S77"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="O35:T35"/>
     <mergeCell ref="O36:T36"/>
@@ -1446,5 +2057,6 @@
     <mergeCell ref="O34:T34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/test_proteins/covid_results.xlsx
+++ b/test_proteins/covid_results.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinyang/GitHubRepository/bimpb-parallelization/test_proteins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD80ECB-F1D6-1740-8D0E-DA5719A24577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED697DE7-EC9B-6349-B9F1-FADEB94B1DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9700" yWindow="500" windowWidth="19100" windowHeight="16020" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
+    <workbookView xWindow="9700" yWindow="500" windowWidth="19100" windowHeight="15980" xr2:uid="{B196EACA-D01E-0E40-8609-4E3B6DEE1321}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -727,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378B2FED-C10B-BC4C-BF34-E1F2D80DC34F}">
   <dimension ref="A1:V90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="116" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="116" workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
